--- a/kruskal/Lit Review/lit review kruskal.xlsx
+++ b/kruskal/Lit Review/lit review kruskal.xlsx
@@ -6,13 +6,14 @@
   </bookViews>
   <sheets>
     <sheet name="Verifications" sheetId="1" r:id="rId4"/>
-    <sheet name="Mechanized Undirected Graphs" sheetId="2" r:id="rId5"/>
+    <sheet name="IJCAR Reviewers" sheetId="2" r:id="rId5"/>
+    <sheet name="Mechanized Undirected Graphs" sheetId="3" r:id="rId6"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="87">
   <si>
     <t>Title</t>
   </si>
@@ -165,6 +166,84 @@
   </si>
   <si>
     <t>…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Characteristic Formulae for the Verification of Imperative Programs	</t>
+  </si>
+  <si>
+    <t>Charguéraud</t>
+  </si>
+  <si>
+    <t>CFML can now handle imperative programs. They are sound and complete representations of the program.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PQ without decrease-key: just push more items and ignore superseded values. Use an array of bool to simulate popping. Adjacency list graph. Dijkstra spec is one vert to one vert optimization. </t>
+  </si>
+  <si>
+    <t>Caml</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dijkstra, counter, CPS append, list iteration, </t>
+  </si>
+  <si>
+    <t>Dijkstra’s shortest path algorithm</t>
+  </si>
+  <si>
+    <t>Nordhoff and Lammich</t>
+  </si>
+  <si>
+    <t>A report on an Isabelle verification of Dijkstra. Refinements help to take it to better executable code.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strict idea of “valid graph”. They definte a new typeclass to exlain inf. But inf is totally disjoint from numbers. a &lt;&gt; inf -&gt; b &lt;&gt; inf -&gt; a + b &lt;&gt; inf. </t>
+  </si>
+  <si>
+    <t>Isabelle + extraction</t>
+  </si>
+  <si>
+    <t>Up to extraction</t>
+  </si>
+  <si>
+    <t>Dijkstra</t>
+  </si>
+  <si>
+    <t>The Floyd-Warshall Algorithm for Shortest Paths</t>
+  </si>
+  <si>
+    <t>Wimmer and Lammich</t>
+  </si>
+  <si>
+    <t>A report on an Isabelle verification of Floyd-Warshall. Refinements help to take it to better executable code.</t>
+  </si>
+  <si>
+    <t>none?</t>
+  </si>
+  <si>
+    <t>Floyd-Warshall</t>
+  </si>
+  <si>
+    <t>HOL-Boogie— An interactive prover for the Boogie program-verifier</t>
+  </si>
+  <si>
+    <t>Bohme et al</t>
+  </si>
+  <si>
+    <t>A new proof environment that locks into HOL and Boogie. Links up to a verification chain that lets them reason about C programs.</t>
+  </si>
+  <si>
+    <t>The Dijkstra verified is in Isabelle, and does not seem to be extracted to C or anything. The verification is interesting, as it automatically guides them towards strengthening the invariant, etc.</t>
+  </si>
+  <si>
+    <t>Isabelle, C</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Plus retain all citation from old paper</t>
   </si>
   <si>
     <t>Details</t>
@@ -294,7 +373,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -327,6 +406,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
@@ -1777,7 +1868,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="A2" xSplit="0" ySplit="1" activePane="bottomLeft" state="frozen"/>
@@ -1788,8 +1879,12 @@
     <col min="1" max="1" width="19.0859" style="11" customWidth="1"/>
     <col min="2" max="2" width="5.22656" style="11" customWidth="1"/>
     <col min="3" max="3" width="12.2266" style="11" customWidth="1"/>
-    <col min="4" max="4" width="80.2812" style="11" customWidth="1"/>
-    <col min="5" max="16384" width="16.3516" style="11" customWidth="1"/>
+    <col min="4" max="4" width="45.7812" style="11" customWidth="1"/>
+    <col min="5" max="5" width="25.3984" style="11" customWidth="1"/>
+    <col min="6" max="6" width="9.78125" style="11" customWidth="1"/>
+    <col min="7" max="7" width="11.6797" style="11" customWidth="1"/>
+    <col min="8" max="8" width="16.3516" style="11" customWidth="1"/>
+    <col min="9" max="16384" width="16.3516" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.35" customHeight="1">
@@ -1803,7 +1898,274 @@
         <v>2</v>
       </c>
       <c r="D1" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s" s="2">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" ht="92.35" customHeight="1">
+      <c r="A2" t="s" s="12">
         <v>51</v>
+      </c>
+      <c r="B2" s="13">
+        <v>2011</v>
+      </c>
+      <c r="C2" t="s" s="14">
+        <v>52</v>
+      </c>
+      <c r="D2" t="s" s="5">
+        <v>53</v>
+      </c>
+      <c r="E2" t="s" s="5">
+        <v>54</v>
+      </c>
+      <c r="F2" t="s" s="5">
+        <v>55</v>
+      </c>
+      <c r="G2" t="s" s="5">
+        <v>56</v>
+      </c>
+      <c r="H2" t="s" s="5">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" ht="68.35" customHeight="1">
+      <c r="A3" t="s" s="12">
+        <v>58</v>
+      </c>
+      <c r="B3" s="13">
+        <v>2012</v>
+      </c>
+      <c r="C3" t="s" s="14">
+        <v>59</v>
+      </c>
+      <c r="D3" t="s" s="5">
+        <v>60</v>
+      </c>
+      <c r="E3" t="s" s="5">
+        <v>61</v>
+      </c>
+      <c r="F3" t="s" s="5">
+        <v>62</v>
+      </c>
+      <c r="G3" t="s" s="5">
+        <v>63</v>
+      </c>
+      <c r="H3" t="s" s="5">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" ht="44.35" customHeight="1">
+      <c r="A4" t="s" s="12">
+        <v>65</v>
+      </c>
+      <c r="B4" s="13">
+        <v>2017</v>
+      </c>
+      <c r="C4" t="s" s="14">
+        <v>66</v>
+      </c>
+      <c r="D4" t="s" s="5">
+        <v>67</v>
+      </c>
+      <c r="E4" t="s" s="5">
+        <v>68</v>
+      </c>
+      <c r="F4" t="s" s="5">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s" s="5">
+        <v>63</v>
+      </c>
+      <c r="H4" t="s" s="5">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" ht="92.35" customHeight="1">
+      <c r="A5" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="B5" s="13">
+        <v>2008</v>
+      </c>
+      <c r="C5" t="s" s="14">
+        <v>71</v>
+      </c>
+      <c r="D5" t="s" s="5">
+        <v>72</v>
+      </c>
+      <c r="E5" t="s" s="5">
+        <v>73</v>
+      </c>
+      <c r="F5" t="s" s="5">
+        <v>74</v>
+      </c>
+      <c r="G5" t="s" s="5">
+        <v>75</v>
+      </c>
+      <c r="H5" t="s" s="5">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" ht="140.35" customHeight="1">
+      <c r="A6" t="s" s="9">
+        <v>17</v>
+      </c>
+      <c r="B6" s="4">
+        <v>2019</v>
+      </c>
+      <c r="C6" t="s" s="5">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s" s="5">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s" s="5">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="H6" t="s" s="5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" ht="32.35" customHeight="1">
+      <c r="A7" t="s" s="9">
+        <v>76</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" ht="20.35" customHeight="1">
+      <c r="A8" s="10"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" ht="20.35" customHeight="1">
+      <c r="A9" s="10"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" ht="20.35" customHeight="1">
+      <c r="A10" s="10"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" ht="20.35" customHeight="1">
+      <c r="A11" s="10"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" ht="20.35" customHeight="1">
+      <c r="A12" s="10"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" ht="20.35" customHeight="1">
+      <c r="A13" s="10"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" ht="20.35" customHeight="1">
+      <c r="A14" s="10"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
+      <pane topLeftCell="A2" xSplit="0" ySplit="1" activePane="bottomLeft" state="frozen"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="19.0859" style="15" customWidth="1"/>
+    <col min="2" max="2" width="5.22656" style="15" customWidth="1"/>
+    <col min="3" max="3" width="12.2266" style="15" customWidth="1"/>
+    <col min="4" max="4" width="80.2812" style="15" customWidth="1"/>
+    <col min="5" max="16384" width="16.3516" style="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="20.35" customHeight="1">
+      <c r="A1" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
     <row r="2" ht="44.35" customHeight="1">
@@ -1817,31 +2179,31 @@
         <v>10</v>
       </c>
       <c r="D2" t="s" s="5">
-        <v>52</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" ht="20.35" customHeight="1">
-      <c r="A3" s="12"/>
+      <c r="A3" s="16"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
       <c r="D3" t="s" s="5">
-        <v>53</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" ht="20.55" customHeight="1">
-      <c r="A4" s="12"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" t="s" s="5">
-        <v>54</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" ht="20.35" customHeight="1">
-      <c r="A5" s="12"/>
+      <c r="A5" s="16"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" t="s" s="5">
-        <v>55</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" ht="80.35" customHeight="1">
@@ -1855,23 +2217,23 @@
         <v>18</v>
       </c>
       <c r="D6" t="s" s="5">
-        <v>56</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" ht="44.35" customHeight="1">
-      <c r="A7" s="13"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" t="s" s="5">
-        <v>57</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" ht="44.35" customHeight="1">
-      <c r="A8" s="13"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" t="s" s="5">
-        <v>58</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" ht="56.35" customHeight="1">
@@ -1885,7 +2247,7 @@
         <v>24</v>
       </c>
       <c r="D9" t="s" s="5">
-        <v>59</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" ht="68.35" customHeight="1">
@@ -1899,7 +2261,7 @@
         <v>24</v>
       </c>
       <c r="D10" t="s" s="5">
-        <v>59</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" ht="32.35" customHeight="1">
@@ -1912,8 +2274,8 @@
       <c r="C11" t="s" s="5">
         <v>33</v>
       </c>
-      <c r="D11" t="s" s="14">
-        <v>60</v>
+      <c r="D11" t="s" s="18">
+        <v>86</v>
       </c>
     </row>
     <row r="12" ht="44.35" customHeight="1">
